--- a/ProjectDocs/CI Log Sheet.xlsx
+++ b/ProjectDocs/CI Log Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="149">
   <si>
     <t>CI Item</t>
   </si>
@@ -469,13 +469,16 @@
   </si>
   <si>
     <t>5dc808e</t>
+  </si>
+  <si>
+    <t>e28b6e0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +548,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -601,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +646,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -918,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1300,14 +1310,14 @@
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>43</v>
+      <c r="B21" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="8">
-        <v>43059</v>
+        <v>43145</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
@@ -1316,53 +1326,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8">
+        <v>43059</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B23" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8">
         <v>43099</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8">
-        <v>43096</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="8">
-        <v>43090</v>
+        <v>43096</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>47</v>
@@ -1373,7 +1383,7 @@
     </row>
     <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>6</v>
@@ -1390,7 +1400,7 @@
     </row>
     <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
@@ -1407,13 +1417,13 @@
     </row>
     <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="8">
-        <v>43057</v>
+        <v>43090</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>47</v>
@@ -1424,13 +1434,13 @@
     </row>
     <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>47</v>
@@ -1439,110 +1449,110 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="8">
-        <v>43068</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8">
-        <v>43057</v>
+        <v>43068</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="8">
+        <v>43057</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8">
         <v>43073</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="8">
-        <v>43116</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="8">
-        <v>43096</v>
+        <v>43116</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="8">
-        <v>43077</v>
+        <v>43096</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>61</v>
@@ -1551,109 +1561,109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>19</v>
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D35" s="8">
-        <v>43055</v>
+        <v>43077</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B37" s="17">
         <v>2963044</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8">
         <v>43090</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="8">
-        <v>43055</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B39" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="8">
-        <v>43080</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="8">
-        <v>43074</v>
+        <v>43080</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="8">
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>69</v>
@@ -1664,13 +1674,13 @@
     </row>
     <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="8">
-        <v>43057</v>
+        <v>43073</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>69</v>
@@ -1681,7 +1691,7 @@
     </row>
     <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>15</v>
@@ -1696,29 +1706,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="8">
+        <v>43057</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B44" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="8">
-        <v>43055</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>6</v>
@@ -1730,15 +1740,12 @@
         <v>76</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>6</v>
@@ -1747,15 +1754,18 @@
         <v>43055</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>6</v>
@@ -1767,15 +1777,12 @@
         <v>78</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
@@ -1784,15 +1791,18 @@
         <v>43055</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>6</v>
@@ -1804,72 +1814,72 @@
         <v>80</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D49" s="8">
         <v>43055</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="F50" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B51" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="8">
+      <c r="C51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="8">
         <v>43090</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+      <c r="F51" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B52" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="8">
-        <v>43055</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>6</v>
@@ -1881,56 +1891,56 @@
         <v>88</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="14">
+      <c r="C54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="14">
         <v>43097</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="8">
-        <v>43096</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B55" s="6" t="s">
-        <v>93</v>
+      <c r="F54" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="8">
-        <v>43091</v>
+        <v>43096</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>92</v>
@@ -1941,13 +1951,13 @@
     </row>
     <row r="56" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="8">
-        <v>43090</v>
+        <v>43091</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>92</v>
@@ -1958,13 +1968,13 @@
     </row>
     <row r="57" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8">
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>92</v>
@@ -1975,13 +1985,13 @@
     </row>
     <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="8">
-        <v>43057</v>
+        <v>43089</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>92</v>
@@ -1992,13 +2002,13 @@
     </row>
     <row r="59" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="8">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>92</v>
@@ -2007,53 +2017,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
+    <row r="60" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="8">
-        <v>43098</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="8">
-        <v>43096</v>
+        <v>43098</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B62" s="6" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="8">
-        <v>43080</v>
+        <v>43096</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>98</v>
@@ -2064,13 +2074,13 @@
     </row>
     <row r="63" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="8">
-        <v>43077</v>
+        <v>43080</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>98</v>
@@ -2079,52 +2089,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="8">
+        <v>43077</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B65" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="8">
+      <c r="C65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
         <v>43096</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B65" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="8">
-        <v>43091</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="8">
-        <v>43089</v>
+        <v>43091</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>103</v>
@@ -2133,52 +2143,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>108</v>
+    <row r="67" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D67" s="8">
         <v>43089</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="6">
-        <v>7875842</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A68" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="8">
-        <v>43074</v>
+        <v>43089</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="6" t="s">
-        <v>109</v>
+      <c r="B69" s="6">
+        <v>7875842</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="8">
-        <v>43066</v>
+        <v>43074</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>107</v>
@@ -2189,13 +2199,13 @@
     </row>
     <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="8">
-        <v>43061</v>
+        <v>43066</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>107</v>
@@ -2206,13 +2216,13 @@
     </row>
     <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="8">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>107</v>
@@ -2223,13 +2233,13 @@
     </row>
     <row r="72" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="8">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>107</v>
@@ -2238,54 +2248,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
+    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="8">
-        <v>43116</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="8">
-        <v>43098</v>
+        <v>43116</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
-      <c r="B75" s="19" t="s">
-        <v>99</v>
+      <c r="B75" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="8">
-        <v>43096</v>
+        <v>43098</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>113</v>
@@ -2294,15 +2303,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B76" s="6" t="s">
-        <v>62</v>
+    <row r="76" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="8">
-        <v>43077</v>
+        <v>43096</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>113</v>
@@ -2312,14 +2322,14 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B77" s="6">
-        <v>7875842</v>
+      <c r="B77" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="8">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>113</v>
@@ -2329,14 +2339,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="6" t="s">
-        <v>114</v>
+      <c r="B78" s="6">
+        <v>7875842</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D78" s="8">
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>113</v>
@@ -2347,7 +2357,7 @@
     </row>
     <row r="79" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>37</v>
@@ -2364,13 +2374,13 @@
     </row>
     <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="8">
-        <v>43059</v>
+        <v>43073</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>113</v>
@@ -2379,46 +2389,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="8">
+        <v>43059</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B82" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="8">
         <v>43090</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="8">
-        <v>43055</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>6</v>
@@ -2433,49 +2443,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
-        <v>120</v>
-      </c>
+    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D84" s="8">
         <v>43055</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="8">
+        <v>43055</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
+      <c r="F85" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B86" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="8">
-        <v>43075</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B86" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>37</v>
@@ -2487,94 +2497,93 @@
         <v>123</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A87" s="20" t="s">
-        <v>126</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D87" s="8">
-        <v>43080</v>
+        <v>43075</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="B88" s="6" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D88" s="8">
-        <v>43057</v>
+        <v>43080</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="8">
+        <v>43057</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="8">
+      <c r="C90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="8">
         <v>43115</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="20"/>
-      <c r="B90" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="8">
-        <v>43097</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="8">
-        <v>43090</v>
+        <v>43097</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>130</v>
@@ -2583,15 +2592,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B92" s="6" t="s">
-        <v>132</v>
+    <row r="92" spans="1:6" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="8">
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>130</v>
@@ -2602,13 +2612,13 @@
     </row>
     <row r="93" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="8">
-        <v>43070</v>
+        <v>43089</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>130</v>
@@ -2619,13 +2629,13 @@
     </row>
     <row r="94" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="8">
-        <v>43057</v>
+        <v>43070</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>130</v>
@@ -2636,13 +2646,13 @@
     </row>
     <row r="95" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="8">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>130</v>
@@ -2651,48 +2661,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>137</v>
+    <row r="96" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B96" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D96" s="8">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="8">
+        <v>43042</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="8">
         <v>43074</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
+      <c r="F98" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2702,37 +2729,37 @@
     <hyperlink ref="B7" r:id="rId4" display="https://github.com/csljaipur/compucom/commit/fb237bfd24be1beb94ce5f7ecce98bfd5b1d723d"/>
     <hyperlink ref="B16" r:id="rId5" display="https://github.com/csljaipur/compucom/commit/ac79cfcfefd39e8a755f43eed06efaa611af1e8e"/>
     <hyperlink ref="B17" r:id="rId6" display="https://github.com/csljaipur/compucom/commit/02ce2941682c7e5cbba4d4fc7eb77c0ae670ba9a"/>
-    <hyperlink ref="B21" r:id="rId7" display="https://github.com/csljaipur/compucom/commit/cb8f31e6eff679aad50af27c88fa6b14433bd41f"/>
-    <hyperlink ref="B22" r:id="rId8" display="https://github.com/csljaipur/compucom/commit/3bd2e8f9758107d76db0ed0d8d2fcac74ff5ca52"/>
-    <hyperlink ref="B29" r:id="rId9" display="https://github.com/csljaipur/compucom/commit/17572b25237e0f3a70284aff39e97f3e8be18a17"/>
-    <hyperlink ref="B31" r:id="rId10" display="https://github.com/csljaipur/compucom/commit/a72ffc1f1343549a04c241a1cdf292ead75771dc"/>
-    <hyperlink ref="B35" r:id="rId11" display="https://github.com/csljaipur/compucom/commit/1a4f3cec95f1d66b056da4b2525c37167b1bb50f"/>
-    <hyperlink ref="B36" r:id="rId12" display="https://github.com/csljaipur/compucom/commit/29630442410b9859d90750223287ad40d2668f63"/>
-    <hyperlink ref="B38" r:id="rId13" display="https://github.com/csljaipur/compucom/commit/60f068b4221d46d8a8430c24bca2660f22959506"/>
-    <hyperlink ref="B43" r:id="rId14" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
-    <hyperlink ref="B45" r:id="rId15" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
-    <hyperlink ref="B47" r:id="rId16" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
-    <hyperlink ref="B49" r:id="rId17" display="https://github.com/csljaipur/compucom/commit/e380bb3a58519f4da96789f77d2b7d80a24e290d"/>
-    <hyperlink ref="B50" r:id="rId18" display="https://github.com/csljaipur/compucom/commit/2c08ecc1dec98155d2f5e26e65b914a2e43e7f82"/>
-    <hyperlink ref="B51" r:id="rId19" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
-    <hyperlink ref="B54" r:id="rId20" display="https://github.com/csljaipur/compucom/commit/c0004fc5843d734569e5e08060afd368d07223ac"/>
-    <hyperlink ref="B64" r:id="rId21" display="https://github.com/csljaipur/compucom/commit/d02dac610a7d22175ea5680ca803956975f3497f"/>
-    <hyperlink ref="B67" r:id="rId22" display="https://github.com/csljaipur/compucom/commit/af7ed0a79ba4bab2acdcdd87a0f57f77285f44c2"/>
-    <hyperlink ref="B81" r:id="rId23" display="https://github.com/csljaipur/compucom/commit/c0120f4eeb50cbd8e898e8086198d1b00fb7718b"/>
-    <hyperlink ref="B85" r:id="rId24" display="https://github.com/csljaipur/compucom/commit/d2e2c5e64a275bae9c143ad6532fae6ec26deb11"/>
-    <hyperlink ref="B96" r:id="rId25" display="https://github.com/csljaipur/compucom/commit/7f998a2426aff7aef39047496a382437391e9861"/>
-    <hyperlink ref="B97" r:id="rId26" display="https://github.com/csljaipur/compucom/commit/df6c3a1fc8f11af8be80143230a9c976ac58193a"/>
-    <hyperlink ref="B53" r:id="rId27" display="https://github.com/csljaipur/compucom/commit/d501b1549de2a89bdc9610e616235de33e48a64c"/>
-    <hyperlink ref="B91" r:id="rId28" display="https://github.com/csljaipur/compucom/commit/a3ab741fdc0cead1b6df1a8b231edfc9170e8631"/>
-    <hyperlink ref="B61" r:id="rId29" display="https://github.com/csljaipur/compucom/commit/4e5613375f96db28d2ddf47d1b2597d6049fe1dc"/>
-    <hyperlink ref="B60" r:id="rId30" display="https://github.com/csljaipur/compucom/commit/94665063b393b1dffa8daa55a79d92ccd24cc088"/>
-    <hyperlink ref="B75" r:id="rId31" display="https://github.com/csljaipur/compucom/commit/4e5613375f96db28d2ddf47d1b2597d6049fe1dc"/>
-    <hyperlink ref="B23" r:id="rId32" display="https://github.com/csljaipur/compucom/commit/3bd2e8f9758107d76db0ed0d8d2fcac74ff5ca52"/>
-    <hyperlink ref="B89" r:id="rId33" display="https://github.com/csljaipur/compucom/commit/da73588d40eb3df1b102d7a74685152660a4ca21"/>
-    <hyperlink ref="B33" r:id="rId34" display="https://github.com/csljaipur/compucom/commit/4e5613375f96db28d2ddf47d1b2597d6049fe1dc"/>
-    <hyperlink ref="B32" r:id="rId35" display="https://github.com/csljaipur/compucom/commit/5dc808e60e87efc6b0f7ac92777c5b4685874fdb"/>
-    <hyperlink ref="B74" r:id="rId36" display="https://github.com/csljaipur/compucom/commit/94665063b393b1dffa8daa55a79d92ccd24cc088"/>
-    <hyperlink ref="B73" r:id="rId37" display="https://github.com/csljaipur/compucom/commit/5dc808e60e87efc6b0f7ac92777c5b4685874fdb"/>
+    <hyperlink ref="B23" r:id="rId7" display="https://github.com/csljaipur/compucom/commit/3bd2e8f9758107d76db0ed0d8d2fcac74ff5ca52"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://github.com/csljaipur/compucom/commit/17572b25237e0f3a70284aff39e97f3e8be18a17"/>
+    <hyperlink ref="B32" r:id="rId9" display="https://github.com/csljaipur/compucom/commit/a72ffc1f1343549a04c241a1cdf292ead75771dc"/>
+    <hyperlink ref="B36" r:id="rId10" display="https://github.com/csljaipur/compucom/commit/1a4f3cec95f1d66b056da4b2525c37167b1bb50f"/>
+    <hyperlink ref="B37" r:id="rId11" display="https://github.com/csljaipur/compucom/commit/29630442410b9859d90750223287ad40d2668f63"/>
+    <hyperlink ref="B39" r:id="rId12" display="https://github.com/csljaipur/compucom/commit/60f068b4221d46d8a8430c24bca2660f22959506"/>
+    <hyperlink ref="B44" r:id="rId13" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
+    <hyperlink ref="B46" r:id="rId14" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
+    <hyperlink ref="B48" r:id="rId15" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
+    <hyperlink ref="B50" r:id="rId16" display="https://github.com/csljaipur/compucom/commit/e380bb3a58519f4da96789f77d2b7d80a24e290d"/>
+    <hyperlink ref="B51" r:id="rId17" display="https://github.com/csljaipur/compucom/commit/2c08ecc1dec98155d2f5e26e65b914a2e43e7f82"/>
+    <hyperlink ref="B52" r:id="rId18" display="https://github.com/csljaipur/compucom/commit/276556f499b0efffed4a81eb73276673f8a9959e"/>
+    <hyperlink ref="B55" r:id="rId19" display="https://github.com/csljaipur/compucom/commit/c0004fc5843d734569e5e08060afd368d07223ac"/>
+    <hyperlink ref="B65" r:id="rId20" display="https://github.com/csljaipur/compucom/commit/d02dac610a7d22175ea5680ca803956975f3497f"/>
+    <hyperlink ref="B68" r:id="rId21" display="https://github.com/csljaipur/compucom/commit/af7ed0a79ba4bab2acdcdd87a0f57f77285f44c2"/>
+    <hyperlink ref="B82" r:id="rId22" display="https://github.com/csljaipur/compucom/commit/c0120f4eeb50cbd8e898e8086198d1b00fb7718b"/>
+    <hyperlink ref="B86" r:id="rId23" display="https://github.com/csljaipur/compucom/commit/d2e2c5e64a275bae9c143ad6532fae6ec26deb11"/>
+    <hyperlink ref="B97" r:id="rId24" display="https://github.com/csljaipur/compucom/commit/7f998a2426aff7aef39047496a382437391e9861"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://github.com/csljaipur/compucom/commit/df6c3a1fc8f11af8be80143230a9c976ac58193a"/>
+    <hyperlink ref="B54" r:id="rId26" display="https://github.com/csljaipur/compucom/commit/d501b1549de2a89bdc9610e616235de33e48a64c"/>
+    <hyperlink ref="B92" r:id="rId27" display="https://github.com/csljaipur/compucom/commit/a3ab741fdc0cead1b6df1a8b231edfc9170e8631"/>
+    <hyperlink ref="B62" r:id="rId28" display="https://github.com/csljaipur/compucom/commit/4e5613375f96db28d2ddf47d1b2597d6049fe1dc"/>
+    <hyperlink ref="B61" r:id="rId29" display="https://github.com/csljaipur/compucom/commit/94665063b393b1dffa8daa55a79d92ccd24cc088"/>
+    <hyperlink ref="B76" r:id="rId30" display="https://github.com/csljaipur/compucom/commit/4e5613375f96db28d2ddf47d1b2597d6049fe1dc"/>
+    <hyperlink ref="B24" r:id="rId31" display="https://github.com/csljaipur/compucom/commit/3bd2e8f9758107d76db0ed0d8d2fcac74ff5ca52"/>
+    <hyperlink ref="B90" r:id="rId32" display="https://github.com/csljaipur/compucom/commit/da73588d40eb3df1b102d7a74685152660a4ca21"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://github.com/csljaipur/compucom/commit/4e5613375f96db28d2ddf47d1b2597d6049fe1dc"/>
+    <hyperlink ref="B33" r:id="rId34" display="https://github.com/csljaipur/compucom/commit/5dc808e60e87efc6b0f7ac92777c5b4685874fdb"/>
+    <hyperlink ref="B75" r:id="rId35" display="https://github.com/csljaipur/compucom/commit/94665063b393b1dffa8daa55a79d92ccd24cc088"/>
+    <hyperlink ref="B74" r:id="rId36" display="https://github.com/csljaipur/compucom/commit/5dc808e60e87efc6b0f7ac92777c5b4685874fdb"/>
+    <hyperlink ref="B22" r:id="rId37" display="https://github.com/csljaipur/compucom/commit/cb8f31e6eff679aad50af27c88fa6b14433bd41f"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
